--- a/result/Caliper test results.xlsx
+++ b/result/Caliper test results.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projects\新论文测试代码\caliper测试结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\大U盘\D-Sharing\D-Sharing\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2D324B-0A45-4A45-870F-DC0B8BE4963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D994FF7-2C2E-4D8E-B6C7-605EDFC4200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上传" sheetId="2" r:id="rId1"/>
     <sheet name="分享" sheetId="3" r:id="rId2"/>
     <sheet name="更新" sheetId="4" r:id="rId3"/>
     <sheet name="撤销" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,39 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩放率的计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gosharing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>撤销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +83,7 @@
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,15 +101,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -175,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,24 +145,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,187 +357,6 @@
         <a:xfrm>
           <a:off x="4324310" y="368386"/>
           <a:ext cx="10227283" cy="3530514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139202</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B9562E-21BB-4A74-8893-344E94A7E29D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="1255954"/>
-          <a:ext cx="7118350" cy="2483698"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>39348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>159911</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152B1DF4-25A1-4068-9AE4-9E3BAC32EB06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7550150" y="1150598"/>
-          <a:ext cx="7137400" cy="2609763"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>40004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>631324</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>44449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED2EAE1-8838-47E2-9258-40701E2BFAF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="4173854"/>
-          <a:ext cx="6930524" cy="2671445"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65311</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>624081</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94742</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B4E80E-A666-4045-BE07-E8860C41A594}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7569200" y="4199161"/>
-          <a:ext cx="6923281" cy="2518631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,13 +640,13 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -893,158 +664,158 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>300</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>299.8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.12</v>
       </c>
-      <c r="E3" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>599.6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>598.79999999999995</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>900</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>894.5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.16</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1180.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.15</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1500</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1432.4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.27</v>
       </c>
-      <c r="E7" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1800</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1551.7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.18</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2100</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1781.3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.25</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2400</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1891.4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.16</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2700</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1744.7</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.18</v>
       </c>
-      <c r="E11" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.04</v>
       </c>
     </row>
@@ -1128,20 +899,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC8379-3F38-4C39-953E-754058F652C6}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1161,164 +932,164 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>299.8</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>299.60000000000002</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.22</v>
       </c>
-      <c r="E3" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>598.70000000000005</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>597.9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.21</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>899.4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>876.7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.24</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1160.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.24</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1500</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1499.3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.26</v>
       </c>
-      <c r="E7" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1800</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1619</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2100</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1648.9</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.26</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2400</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1698.6</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.22</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2700</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1637</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.2</v>
       </c>
-      <c r="E11" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1342,13 +1113,13 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1368,155 +1139,155 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>298.2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>295.89999999999998</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.23</v>
       </c>
-      <c r="E3" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>598.29999999999995</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>595.79999999999995</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.21</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>894.2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>829</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.22</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1135.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.23</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1500</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1438.7</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.23</v>
       </c>
-      <c r="E7" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1800</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1599.9</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.26</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2100</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1660.7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.25</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2400</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1646.8</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.25</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2700</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1630.8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.25</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.03</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.06</v>
       </c>
     </row>
@@ -1535,20 +1306,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851F61C-A5C2-430B-AE0A-BF356ACF9D33}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1568,155 +1339,155 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>299.89999999999998</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>299.7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.21</v>
       </c>
-      <c r="E3" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>600</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>599.1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.2</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>896.9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>824.3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.24</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1189.2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.27</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1500</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1497</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E7" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1800</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1534.1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2100</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1632</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2400</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1668.1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.27</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2700</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1671.5</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.22</v>
       </c>
-      <c r="E11" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.05</v>
       </c>
     </row>
@@ -1729,172 +1500,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1868.6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1867.7</v>
-      </c>
-      <c r="D3">
-        <v>1847.3</v>
-      </c>
-      <c r="E3">
-        <v>879.4</v>
-      </c>
-      <c r="G3" s="1">
-        <f>C3/E3</f>
-        <v>2.1238344325676599</v>
-      </c>
-      <c r="I3" s="5">
-        <f>(G3+G4+G5+G6)/4</f>
-        <v>2.2096584424079762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1868.6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1867.7</v>
-      </c>
-      <c r="D4">
-        <v>1820.1</v>
-      </c>
-      <c r="E4">
-        <v>798.6</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G6" si="0">C4/E4</f>
-        <v>2.338717756073128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1963.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1962.9</v>
-      </c>
-      <c r="D5">
-        <v>2010.8</v>
-      </c>
-      <c r="E5">
-        <v>881.1</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2277834525025537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1963.7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1962.9</v>
-      </c>
-      <c r="D6">
-        <v>1984.5</v>
-      </c>
-      <c r="E6">
-        <v>913.7</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>2.1482981284885629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>